--- a/pyfacture/data/output/expenses.xlsx
+++ b/pyfacture/data/output/expenses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,41 +444,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7 Lin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/pyfacture/data/output/expenses.xlsx
+++ b/pyfacture/data/output/expenses.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7 Lin</t>
+          <t>7 LING. BEBE X</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
